--- a/target/test-classes/TestDataUSR.xlsx
+++ b/target/test-classes/TestDataUSR.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\RestAssuredHackathon_Mar24\RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB85258-B129-4AF4-90BD-879E97FF6C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B91E48-9011-4E67-AB51-6EC2210B5B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
-    <sheet name="USR" sheetId="2" r:id="rId2"/>
+    <sheet name="Program" sheetId="3" r:id="rId2"/>
+    <sheet name="USR" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>userLoginEmailId</t>
   </si>
@@ -38,6 +39,78 @@
   </si>
   <si>
     <t>lmsHackathon@2024</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>programName</t>
+  </si>
+  <si>
+    <t>programDescription</t>
+  </si>
+  <si>
+    <t>programStatus</t>
+  </si>
+  <si>
+    <t>endPoint</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 201</t>
+  </si>
+  <si>
+    <t>/saveprogram</t>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 404</t>
+  </si>
+  <si>
+    <t>/savepgm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 405</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 200</t>
+  </si>
+  <si>
+    <t>MAR24-APITroopers-SDET</t>
+  </si>
+  <si>
+    <t>Software Testing Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -73,8 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -388,6 +462,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03636777-77DB-441F-865F-6037491197E6}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167F28B4-B2EE-4459-9A76-3FBA7234D5D3}">
   <dimension ref="A1"/>
   <sheetViews>
